--- a/IMMC/RawData.xlsx
+++ b/IMMC/RawData.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Personal/Coding/Python/Main/IMMC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B720FC93-F749-F841-A9DF-6DB5C5E5F222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1CDCCF-F3C0-094D-88E7-F8351A8C67E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="21380" activeTab="2" xr2:uid="{14C2B349-567E-F947-85BA-DCDF798AFEE9}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="21380" activeTab="3" xr2:uid="{14C2B349-567E-F947-85BA-DCDF798AFEE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
     <sheet name="Q1" sheetId="6" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="85">
   <si>
     <t>Alice</t>
   </si>
@@ -68,23 +69,260 @@
     <t>Bob</t>
   </si>
   <si>
-    <t>Charlie</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Erin</t>
-  </si>
-  <si>
     <t>sum</t>
+  </si>
+  <si>
+    <t>0   130      0</t>
+  </si>
+  <si>
+    <t>1    47      0</t>
+  </si>
+  <si>
+    <t>2   120      0</t>
+  </si>
+  <si>
+    <t>3   150      0</t>
+  </si>
+  <si>
+    <t>4     0    200</t>
+  </si>
+  <si>
+    <t>5     0    180</t>
+  </si>
+  <si>
+    <t>6    11      0</t>
+  </si>
+  <si>
+    <t>7     0    200</t>
+  </si>
+  <si>
+    <t>8     0      3</t>
+  </si>
+  <si>
+    <t>9   140      0</t>
+  </si>
+  <si>
+    <t>10    5      0</t>
+  </si>
+  <si>
+    <t>11    0     15</t>
+  </si>
+  <si>
+    <t>12  220      0</t>
+  </si>
+  <si>
+    <t>13    0    120</t>
+  </si>
+  <si>
+    <t>14    0      5</t>
+  </si>
+  <si>
+    <t>15    0    200</t>
+  </si>
+  <si>
+    <t>16  350      0</t>
+  </si>
+  <si>
+    <t>17   40      0</t>
+  </si>
+  <si>
+    <t>18   15      0</t>
+  </si>
+  <si>
+    <t>19   25      0</t>
+  </si>
+  <si>
+    <t>20    0     50</t>
+  </si>
+  <si>
+    <t>21  120      0</t>
+  </si>
+  <si>
+    <t>22   95      0</t>
+  </si>
+  <si>
+    <t>23    0    200</t>
+  </si>
+  <si>
+    <t>24  320      0</t>
+  </si>
+  <si>
+    <t>25  400      0</t>
+  </si>
+  <si>
+    <t>26    0      3</t>
+  </si>
+  <si>
+    <t>27    0      3</t>
+  </si>
+  <si>
+    <t>28  140      0</t>
+  </si>
+  <si>
+    <t>29   30      0</t>
+  </si>
+  <si>
+    <t>0       0   70        0</t>
+  </si>
+  <si>
+    <t>1       0    0       25</t>
+  </si>
+  <si>
+    <t>2     110    0        0</t>
+  </si>
+  <si>
+    <t>3       0  100        0</t>
+  </si>
+  <si>
+    <t>4       0  310        0</t>
+  </si>
+  <si>
+    <t>5     180    0        0</t>
+  </si>
+  <si>
+    <t>6       7    0        0</t>
+  </si>
+  <si>
+    <t>7     200    0        0</t>
+  </si>
+  <si>
+    <t>8       0    0        3</t>
+  </si>
+  <si>
+    <t>9       0    0       90</t>
+  </si>
+  <si>
+    <t>10      0    4        0</t>
+  </si>
+  <si>
+    <t>11     15    0        0</t>
+  </si>
+  <si>
+    <t>12      0  110        0</t>
+  </si>
+  <si>
+    <t>13    120    0        0</t>
+  </si>
+  <si>
+    <t>14      0    3        0</t>
+  </si>
+  <si>
+    <t>15    200    0        0</t>
+  </si>
+  <si>
+    <t>16    150    0        0</t>
+  </si>
+  <si>
+    <t>17      0   20        0</t>
+  </si>
+  <si>
+    <t>18      0    8        0</t>
+  </si>
+  <si>
+    <t>19      0    0       15</t>
+  </si>
+  <si>
+    <t>20      0   75        0</t>
+  </si>
+  <si>
+    <t>21      0    0       95</t>
+  </si>
+  <si>
+    <t>22      0    0       20</t>
+  </si>
+  <si>
+    <t>23      0    0      340</t>
+  </si>
+  <si>
+    <t>24      0    0      220</t>
+  </si>
+  <si>
+    <t>25      0  250        0</t>
+  </si>
+  <si>
+    <t>26      0   30        0</t>
+  </si>
+  <si>
+    <t>27      0    0       50</t>
+  </si>
+  <si>
+    <t>28      0    0      100</t>
+  </si>
+  <si>
+    <t>29      0    0       25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Alice  Bob  Charlie</t>
+  </si>
+  <si>
+    <t>1       0   22       25</t>
+  </si>
+  <si>
+    <t>7       0  700        0</t>
+  </si>
+  <si>
+    <t>8       0   10        3</t>
+  </si>
+  <si>
+    <t>9      75    0       90</t>
+  </si>
+  <si>
+    <t>10      4    0        0</t>
+  </si>
+  <si>
+    <t>14      5    0        0</t>
+  </si>
+  <si>
+    <t>15      0  800        0</t>
+  </si>
+  <si>
+    <t>17     20    0        0</t>
+  </si>
+  <si>
+    <t>19      0   10       15</t>
+  </si>
+  <si>
+    <t>21     50    0       95</t>
+  </si>
+  <si>
+    <t>22      0   75       20</t>
+  </si>
+  <si>
+    <t>23      0  300      340</t>
+  </si>
+  <si>
+    <t>24      0  100      220</t>
+  </si>
+  <si>
+    <t>27      0   45       50</t>
+  </si>
+  <si>
+    <t>28     70    0      100</t>
+  </si>
+  <si>
+    <t>29     30    0       25</t>
+  </si>
+  <si>
+    <t>"-200"</t>
+  </si>
+  <si>
+    <t>"+600</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>"+200</t>
+  </si>
+  <si>
+    <t>"-250</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -105,8 +343,19 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -116,6 +365,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -147,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -159,8 +414,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -480,25 +749,25 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView zoomScale="165" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="1">
         <v>4</v>
       </c>
     </row>
@@ -1021,29 +1290,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D06CD0-DB5C-CB40-BEC2-1F8DB453C645}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView zoomScale="133" workbookViewId="0">
-      <selection sqref="A1:B31"/>
+      <selection activeCell="A2" sqref="A2:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>30</v>
       </c>
@@ -1053,11 +1319,9 @@
       <c r="C2" s="2">
         <v>60</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>20</v>
       </c>
@@ -1067,11 +1331,9 @@
       <c r="C3" s="2">
         <v>25</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>110</v>
       </c>
@@ -1081,11 +1343,9 @@
       <c r="C4" s="2">
         <v>50</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>50</v>
       </c>
@@ -1095,11 +1355,9 @@
       <c r="C5" s="2">
         <v>50</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>200</v>
       </c>
@@ -1109,11 +1367,9 @@
       <c r="C6" s="2">
         <v>200</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>180</v>
       </c>
@@ -1123,11 +1379,9 @@
       <c r="C7" s="2">
         <v>-50</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1137,11 +1391,9 @@
       <c r="C8" s="2">
         <v>5</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>200</v>
       </c>
@@ -1151,11 +1403,9 @@
       <c r="C9" s="2">
         <v>450</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -1165,11 +1415,9 @@
       <c r="C10" s="2">
         <v>3</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>75</v>
       </c>
@@ -1179,11 +1427,9 @@
       <c r="C11" s="2">
         <v>90</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>4</v>
       </c>
@@ -1193,11 +1439,9 @@
       <c r="C12" s="2">
         <v>1</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>15</v>
       </c>
@@ -1207,11 +1451,9 @@
       <c r="C13" s="2">
         <v>7</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -1221,11 +1463,9 @@
       <c r="C14" s="2">
         <v>110</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>120</v>
       </c>
@@ -1235,11 +1475,9 @@
       <c r="C15" s="2">
         <v>90</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>5</v>
       </c>
@@ -1249,11 +1487,9 @@
       <c r="C16" s="2">
         <v>15</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>200</v>
       </c>
@@ -1263,11 +1499,9 @@
       <c r="C17" s="2">
         <v>600</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>150</v>
       </c>
@@ -1277,11 +1511,9 @@
       <c r="C18" s="2">
         <v>300</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>20</v>
       </c>
@@ -1291,11 +1523,9 @@
       <c r="C19" s="2">
         <v>20</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>5</v>
       </c>
@@ -1305,11 +1535,9 @@
       <c r="C20" s="2">
         <v>7</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>9</v>
       </c>
@@ -1319,11 +1547,9 @@
       <c r="C21" s="2">
         <v>15</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>50</v>
       </c>
@@ -1333,11 +1559,9 @@
       <c r="C22" s="2">
         <v>-30</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>50</v>
       </c>
@@ -1347,11 +1571,9 @@
       <c r="C23" s="2">
         <v>95</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>20</v>
       </c>
@@ -1361,11 +1583,9 @@
       <c r="C24" s="2">
         <v>20</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>200</v>
       </c>
@@ -1375,11 +1595,9 @@
       <c r="C25" s="2">
         <v>340</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>50</v>
       </c>
@@ -1389,11 +1607,9 @@
       <c r="C26" s="2">
         <v>220</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>200</v>
       </c>
@@ -1403,11 +1619,9 @@
       <c r="C27" s="2">
         <v>150</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>3</v>
       </c>
@@ -1417,11 +1631,9 @@
       <c r="C28" s="2">
         <v>5</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>3</v>
       </c>
@@ -1431,11 +1643,9 @@
       <c r="C29" s="2">
         <v>50</v>
       </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="5"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>70</v>
       </c>
@@ -1445,11 +1655,9 @@
       <c r="C30" s="2">
         <v>100</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="5"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1459,14 +1667,7 @@
       <c r="C31" s="2">
         <v>25</v>
       </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="5"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
+      <c r="F31" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1478,7 +1679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F0FA59B-6FF5-4B46-9555-95F83EC8DB30}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -1738,6 +1939,1050 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D4A6149-2E74-604B-A0BC-0B38A7B5E5C6}">
+  <dimension ref="A1:R32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B12" zoomScale="144" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21:R21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2">
+        <v>30</v>
+      </c>
+      <c r="D1" s="6">
+        <v>70</v>
+      </c>
+      <c r="E1" s="6">
+        <v>60</v>
+      </c>
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="7">
+        <v>30</v>
+      </c>
+      <c r="K1" s="8">
+        <v>70</v>
+      </c>
+      <c r="L1" s="8">
+        <v>60</v>
+      </c>
+      <c r="N1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q1" s="7">
+        <v>30</v>
+      </c>
+      <c r="R1" s="9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4">
+        <v>22</v>
+      </c>
+      <c r="E2" s="4">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="7">
+        <v>20</v>
+      </c>
+      <c r="K2" s="7">
+        <v>22</v>
+      </c>
+      <c r="L2" s="7">
+        <v>25</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>110</v>
+      </c>
+      <c r="D3" s="4">
+        <v>70</v>
+      </c>
+      <c r="E3" s="4">
+        <v>50</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="7">
+        <v>110</v>
+      </c>
+      <c r="K3" s="7">
+        <v>70</v>
+      </c>
+      <c r="L3" s="7">
+        <v>50</v>
+      </c>
+      <c r="N3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>110</v>
+      </c>
+      <c r="R3" s="7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>50</v>
+      </c>
+      <c r="D4" s="4">
+        <v>100</v>
+      </c>
+      <c r="E4" s="4">
+        <v>50</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="7">
+        <v>50</v>
+      </c>
+      <c r="K4" s="7">
+        <v>100</v>
+      </c>
+      <c r="L4" s="7">
+        <v>50</v>
+      </c>
+      <c r="N4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>50</v>
+      </c>
+      <c r="R4" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4">
+        <v>200</v>
+      </c>
+      <c r="D5" s="2">
+        <v>310</v>
+      </c>
+      <c r="E5" s="2">
+        <v>200</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="7">
+        <v>200</v>
+      </c>
+      <c r="K5" s="7">
+        <v>310</v>
+      </c>
+      <c r="L5" s="7">
+        <v>200</v>
+      </c>
+      <c r="N5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>200</v>
+      </c>
+      <c r="R5" s="10">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4">
+        <v>180</v>
+      </c>
+      <c r="D6" s="2">
+        <v>50</v>
+      </c>
+      <c r="E6" s="2">
+        <v>-50</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="7">
+        <v>180</v>
+      </c>
+      <c r="K6" s="7">
+        <v>50</v>
+      </c>
+      <c r="L6" s="7">
+        <v>-50</v>
+      </c>
+      <c r="N6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>180</v>
+      </c>
+      <c r="R6" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2">
+        <v>7</v>
+      </c>
+      <c r="D7" s="4">
+        <v>6</v>
+      </c>
+      <c r="E7" s="4">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="7">
+        <v>7</v>
+      </c>
+      <c r="K7" s="7">
+        <v>6</v>
+      </c>
+      <c r="L7" s="7">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>7</v>
+      </c>
+      <c r="R7" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4">
+        <v>200</v>
+      </c>
+      <c r="D8" s="2">
+        <v>700</v>
+      </c>
+      <c r="E8" s="2">
+        <v>450</v>
+      </c>
+      <c r="G8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="7">
+        <v>200</v>
+      </c>
+      <c r="K8" s="7">
+        <v>700</v>
+      </c>
+      <c r="L8" s="7">
+        <v>450</v>
+      </c>
+      <c r="N8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>200</v>
+      </c>
+      <c r="R8" s="7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="7">
+        <v>3</v>
+      </c>
+      <c r="K9" s="7">
+        <v>10</v>
+      </c>
+      <c r="L9" s="7">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2">
+        <v>75</v>
+      </c>
+      <c r="D10" s="4">
+        <v>50</v>
+      </c>
+      <c r="E10" s="4">
+        <v>90</v>
+      </c>
+      <c r="G10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="7">
+        <v>75</v>
+      </c>
+      <c r="K10" s="7">
+        <v>50</v>
+      </c>
+      <c r="L10" s="7">
+        <v>90</v>
+      </c>
+      <c r="N10" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2">
+        <v>4</v>
+      </c>
+      <c r="D11" s="4">
+        <v>4</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="7">
+        <v>4</v>
+      </c>
+      <c r="K11" s="7">
+        <v>4</v>
+      </c>
+      <c r="L11" s="7">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>4</v>
+      </c>
+      <c r="R11" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="4">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2">
+        <v>5</v>
+      </c>
+      <c r="E12" s="2">
+        <v>7</v>
+      </c>
+      <c r="G12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="7">
+        <v>15</v>
+      </c>
+      <c r="K12" s="7">
+        <v>5</v>
+      </c>
+      <c r="L12" s="7">
+        <v>7</v>
+      </c>
+      <c r="N12" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q12" s="10">
+        <v>15</v>
+      </c>
+      <c r="R12" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4">
+        <v>110</v>
+      </c>
+      <c r="E13" s="4">
+        <v>110</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" s="7">
+        <v>10</v>
+      </c>
+      <c r="K13" s="7">
+        <v>110</v>
+      </c>
+      <c r="L13" s="7">
+        <v>110</v>
+      </c>
+      <c r="N13" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>10</v>
+      </c>
+      <c r="R13" s="10">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="4">
+        <v>120</v>
+      </c>
+      <c r="D14" s="2">
+        <v>80</v>
+      </c>
+      <c r="E14" s="2">
+        <v>90</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" s="7">
+        <v>120</v>
+      </c>
+      <c r="K14" s="7">
+        <v>80</v>
+      </c>
+      <c r="L14" s="7">
+        <v>90</v>
+      </c>
+      <c r="N14" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q14" s="10">
+        <v>120</v>
+      </c>
+      <c r="R14" s="7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="4">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" s="7">
+        <v>5</v>
+      </c>
+      <c r="K15" s="7">
+        <v>3</v>
+      </c>
+      <c r="L15" s="7">
+        <v>15</v>
+      </c>
+      <c r="N15" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>5</v>
+      </c>
+      <c r="R15" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="4">
+        <v>200</v>
+      </c>
+      <c r="D16" s="2">
+        <v>800</v>
+      </c>
+      <c r="E16" s="2">
+        <v>600</v>
+      </c>
+      <c r="G16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" s="7">
+        <v>200</v>
+      </c>
+      <c r="K16" s="7">
+        <v>800</v>
+      </c>
+      <c r="L16" s="7">
+        <v>600</v>
+      </c>
+      <c r="N16" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q16" s="10">
+        <v>200</v>
+      </c>
+      <c r="R16" s="7">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="2">
+        <v>150</v>
+      </c>
+      <c r="D17" s="4">
+        <v>50</v>
+      </c>
+      <c r="E17" s="4">
+        <v>300</v>
+      </c>
+      <c r="G17" t="s">
+        <v>49</v>
+      </c>
+      <c r="J17" s="7">
+        <v>150</v>
+      </c>
+      <c r="K17" s="7">
+        <v>50</v>
+      </c>
+      <c r="L17" s="7">
+        <v>300</v>
+      </c>
+      <c r="N17" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q17" s="10">
+        <v>150</v>
+      </c>
+      <c r="R17" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="2">
+        <v>20</v>
+      </c>
+      <c r="D18" s="4">
+        <v>20</v>
+      </c>
+      <c r="E18" s="4">
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
+        <v>50</v>
+      </c>
+      <c r="J18" s="7">
+        <v>20</v>
+      </c>
+      <c r="K18" s="7">
+        <v>20</v>
+      </c>
+      <c r="L18" s="7">
+        <v>20</v>
+      </c>
+      <c r="N18" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>20</v>
+      </c>
+      <c r="R18" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="2">
+        <v>5</v>
+      </c>
+      <c r="D19" s="4">
+        <v>8</v>
+      </c>
+      <c r="E19" s="4">
+        <v>7</v>
+      </c>
+      <c r="G19" t="s">
+        <v>51</v>
+      </c>
+      <c r="J19" s="7">
+        <v>5</v>
+      </c>
+      <c r="K19" s="7">
+        <v>8</v>
+      </c>
+      <c r="L19" s="7">
+        <v>7</v>
+      </c>
+      <c r="N19" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>5</v>
+      </c>
+      <c r="R19" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="2">
+        <v>9</v>
+      </c>
+      <c r="D20" s="4">
+        <v>10</v>
+      </c>
+      <c r="E20" s="4">
+        <v>15</v>
+      </c>
+      <c r="G20" t="s">
+        <v>52</v>
+      </c>
+      <c r="J20" s="7">
+        <v>9</v>
+      </c>
+      <c r="K20" s="7">
+        <v>10</v>
+      </c>
+      <c r="L20" s="7">
+        <v>15</v>
+      </c>
+      <c r="N20" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="4">
+        <v>50</v>
+      </c>
+      <c r="D21" s="2">
+        <v>75</v>
+      </c>
+      <c r="E21" s="2">
+        <v>-30</v>
+      </c>
+      <c r="G21" t="s">
+        <v>53</v>
+      </c>
+      <c r="J21" s="7">
+        <v>50</v>
+      </c>
+      <c r="K21" s="7">
+        <v>75</v>
+      </c>
+      <c r="L21" s="7">
+        <v>-30</v>
+      </c>
+      <c r="N21" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>50</v>
+      </c>
+      <c r="R21" s="10">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="2">
+        <v>50</v>
+      </c>
+      <c r="D22" s="4">
+        <v>25</v>
+      </c>
+      <c r="E22" s="4">
+        <v>95</v>
+      </c>
+      <c r="G22" t="s">
+        <v>54</v>
+      </c>
+      <c r="J22" s="7">
+        <v>50</v>
+      </c>
+      <c r="K22" s="7">
+        <v>25</v>
+      </c>
+      <c r="L22" s="7">
+        <v>95</v>
+      </c>
+      <c r="N22" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="2">
+        <v>20</v>
+      </c>
+      <c r="D23" s="4">
+        <v>75</v>
+      </c>
+      <c r="E23" s="4">
+        <v>20</v>
+      </c>
+      <c r="G23" t="s">
+        <v>55</v>
+      </c>
+      <c r="J23" s="7">
+        <v>20</v>
+      </c>
+      <c r="K23" s="7">
+        <v>75</v>
+      </c>
+      <c r="L23" s="7">
+        <v>20</v>
+      </c>
+      <c r="N23" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="4">
+        <v>200</v>
+      </c>
+      <c r="D24" s="2">
+        <v>300</v>
+      </c>
+      <c r="E24" s="2">
+        <v>340</v>
+      </c>
+      <c r="G24" t="s">
+        <v>56</v>
+      </c>
+      <c r="J24" s="7">
+        <v>200</v>
+      </c>
+      <c r="K24" s="7">
+        <v>300</v>
+      </c>
+      <c r="L24" s="7">
+        <v>340</v>
+      </c>
+      <c r="N24" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="2">
+        <v>50</v>
+      </c>
+      <c r="D25" s="4">
+        <v>100</v>
+      </c>
+      <c r="E25" s="4">
+        <v>220</v>
+      </c>
+      <c r="G25" t="s">
+        <v>57</v>
+      </c>
+      <c r="J25" s="7">
+        <v>50</v>
+      </c>
+      <c r="K25" s="7">
+        <v>100</v>
+      </c>
+      <c r="L25" s="7">
+        <v>220</v>
+      </c>
+      <c r="N25" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="2">
+        <v>200</v>
+      </c>
+      <c r="D26" s="4">
+        <v>250</v>
+      </c>
+      <c r="E26" s="4">
+        <v>150</v>
+      </c>
+      <c r="G26" t="s">
+        <v>58</v>
+      </c>
+      <c r="J26" s="7">
+        <v>200</v>
+      </c>
+      <c r="K26" s="7">
+        <v>250</v>
+      </c>
+      <c r="L26" s="7">
+        <v>150</v>
+      </c>
+      <c r="N26" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q26" s="7">
+        <v>200</v>
+      </c>
+      <c r="R26" s="10">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="4">
+        <v>3</v>
+      </c>
+      <c r="D27" s="2">
+        <v>30</v>
+      </c>
+      <c r="E27" s="2">
+        <v>5</v>
+      </c>
+      <c r="G27" t="s">
+        <v>59</v>
+      </c>
+      <c r="J27" s="7">
+        <v>3</v>
+      </c>
+      <c r="K27" s="7">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q27" s="7">
+        <v>3</v>
+      </c>
+      <c r="R27" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="4">
+        <v>3</v>
+      </c>
+      <c r="D28" s="2">
+        <v>45</v>
+      </c>
+      <c r="E28" s="2">
+        <v>50</v>
+      </c>
+      <c r="G28" t="s">
+        <v>60</v>
+      </c>
+      <c r="J28" s="7">
+        <v>3</v>
+      </c>
+      <c r="K28" s="7">
+        <v>45</v>
+      </c>
+      <c r="L28" s="7">
+        <v>50</v>
+      </c>
+      <c r="N28" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="2">
+        <v>70</v>
+      </c>
+      <c r="D29" s="4">
+        <v>40</v>
+      </c>
+      <c r="E29" s="4">
+        <v>100</v>
+      </c>
+      <c r="G29" t="s">
+        <v>61</v>
+      </c>
+      <c r="J29" s="7">
+        <v>70</v>
+      </c>
+      <c r="K29" s="7">
+        <v>40</v>
+      </c>
+      <c r="L29" s="7">
+        <v>100</v>
+      </c>
+      <c r="N29" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="2">
+        <v>30</v>
+      </c>
+      <c r="D30" s="4">
+        <v>5</v>
+      </c>
+      <c r="E30" s="4">
+        <v>25</v>
+      </c>
+      <c r="G30" t="s">
+        <v>62</v>
+      </c>
+      <c r="J30" s="7">
+        <v>30</v>
+      </c>
+      <c r="K30" s="7">
+        <v>5</v>
+      </c>
+      <c r="L30" s="7">
+        <v>25</v>
+      </c>
+      <c r="N30" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N31" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>80</v>
+      </c>
+      <c r="R31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>83</v>
+      </c>
+      <c r="R32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A119660-3CE5-5F43-B9DB-7593327B2588}">
   <dimension ref="A1:U150"/>
   <sheetViews>
@@ -3243,7 +4488,7 @@
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U33">
         <v>2.29E-2</v>
